--- a/Thesis/ThesisTables.xlsx
+++ b/Thesis/ThesisTables.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rostyslavliapkin/Desktop/ThedyxEngine/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rostyslavliapkin/Desktop/ThedyxEngine/Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E4B0309-6FBA-CB48-8893-DF943C79DB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCD553C-A202-0C41-9F85-7A8872953F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39780" yWindow="5260" windowWidth="34560" windowHeight="20120" xr2:uid="{89A7890A-7341-9647-ADE8-D493D9DD052F}"/>
+    <workbookView xWindow="1860" yWindow="1200" windowWidth="34560" windowHeight="20120" xr2:uid="{89A7890A-7341-9647-ADE8-D493D9DD052F}"/>
   </bookViews>
   <sheets>
     <sheet name="Benchmarking MultiCore" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Macbok Pro M3 Pro 16 inches 1 tb ssd(6 performance, 6 efficiency cores). Tested 5 times</t>
   </si>
   <si>
-    <t>cores</t>
-  </si>
-  <si>
     <t>400 objects</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Seconds, simulation</t>
+  </si>
+  <si>
+    <t>Num. Cores</t>
   </si>
 </sst>
 </file>
@@ -110,12 +110,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -139,6 +157,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -364,8 +385,135 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>225 objects</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Benchmarking MultiCore'!$A$2:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Benchmarking MultiCore'!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1877</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2729</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3174</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3116</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3024</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3072</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6C94-FA4F-8DBC-CCFDA5447B1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:v>100 objects</c:v>
           </c:tx>
@@ -487,133 +635,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6C94-FA4F-8DBC-CCFDA5447B1C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>225 objects</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Benchmarking MultiCore'!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Benchmarking MultiCore'!$C$2:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>972</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1877</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3011</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3197</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3150</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3174</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3116</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3024</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3072</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2974</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-6C94-FA4F-8DBC-CCFDA5447B1C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3088,190 +3109,195 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="8">
         <v>533</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>972</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>2133</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="8">
         <v>1036</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>1877</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <v>4027</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="8">
         <v>1527</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="8">
         <v>2729</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="8">
         <v>6058</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="8">
         <v>1837</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="8">
         <v>3011</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="8">
         <v>6294</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="8">
         <v>2022</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="8">
         <v>3150</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="8">
         <v>6415</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="8">
         <v>2115</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="8">
         <v>3197</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="8">
         <v>6743</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="8">
         <v>2055</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="8">
         <v>3150</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="8">
         <v>6639</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="8">
         <v>2091</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="8">
         <v>3174</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="8">
         <v>6524</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="8">
         <v>2074</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="8">
         <v>3116</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="8">
         <v>6337</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="8">
         <v>2038</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="8">
         <v>3024</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="8">
         <v>6034</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="8">
         <v>2042</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="8">
         <v>3072</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="8">
         <v>5772</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="8">
         <v>1973</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="8">
         <v>2974</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="8">
         <v>5569</v>
       </c>
     </row>
@@ -3310,19 +3336,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
